--- a/Информация о проходах/Герасимов Валерий Геннадьевич.xlsx
+++ b/Информация о проходах/Герасимов Валерий Геннадьевич.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 09:07:04</t>
+          <t>2024-05-14 09:41:39</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 18:03:17</t>
+          <t>2024-05-14 17:45:41</t>
         </is>
       </c>
     </row>
@@ -512,6 +512,678 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-05-15 10:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-05-15 12:57:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-05-16 09:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-05-17 09:38:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-20 10:33:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-21 10:11:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-22 09:20:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-23 10:08:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-05-24 10:08:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-05-24 18:02:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-27 09:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-27 09:27:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-28 10:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-28 17:56:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-05-30 09:52:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-05-30 18:16:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-05-31 09:52:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-05-31 18:11:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-06-03 09:07:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:03:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Герасимов Валерий Геннадьевич</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Заместитель начальника отдела ИТ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>2024-06-04 09:03:23</t>
         </is>

--- a/Информация о проходах/Герасимов Валерий Геннадьевич.xlsx
+++ b/Информация о проходах/Герасимов Валерий Геннадьевич.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-14 09:41:39</t>
+          <t>2024-06-03 09:07:04</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-14 17:45:41</t>
+          <t>2024-06-03 18:03:17</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-15 10:04:01</t>
+          <t>2024-06-04 09:03:23</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-15 12:57:34</t>
+          <t>2024-06-04 17:09:25</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-16 09:25:38</t>
+          <t>2024-06-18 07:57:06</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-17 09:38:13</t>
+          <t>2024-06-18 16:14:26</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-20 10:33:42</t>
+          <t>2024-06-20 08:29:59</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-21 10:11:41</t>
+          <t>2024-06-20 17:23:30</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-22 09:20:13</t>
+          <t>2024-06-21 09:32:32</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-23 10:08:16</t>
+          <t>2024-06-21 13:06:03</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-05-24 10:08:55</t>
+          <t>2024-06-24 09:28:03</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-05-24 18:02:24</t>
+          <t>2024-06-24 18:06:07</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-05-27 09:27:00</t>
+          <t>2024-06-25 09:25:37</t>
         </is>
       </c>
     </row>
@@ -855,17 +855,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-05-27 09:27:08</t>
+          <t>2024-06-25 18:21:36</t>
         </is>
       </c>
     </row>
@@ -887,17 +887,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-05-27 17:12:50</t>
+          <t>2024-06-27 10:01:10</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-05-28 10:14:57</t>
+          <t>2024-06-27 18:18:46</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-05-28 17:56:21</t>
+          <t>2024-06-28 09:54:01</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-05-30 09:52:11</t>
+          <t>2024-06-28 09:54:01</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-05-30 18:16:02</t>
+          <t>2024-06-28 18:09:37</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-05-31 09:52:22</t>
+          <t>2024-07-01 09:44:25</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-05-31 18:11:40</t>
+          <t>2024-07-01 18:13:58</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-06-03 09:07:04</t>
+          <t>2024-07-02 09:28:44</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-06-03 18:03:17</t>
+          <t>2024-07-02 17:07:18</t>
         </is>
       </c>
     </row>
@@ -1175,17 +1175,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-06-04 09:03:23</t>
+          <t>2024-07-02 17:07:28</t>
         </is>
       </c>
     </row>
